--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -19,7 +19,7 @@
     <t>鑫e贷总授信_指标</t>
   </si>
   <si>
-    <t>鑫e贷总授信_昨日完成数</t>
+    <t>鑫e贷总授信_昨日完成数(轧差)</t>
   </si>
   <si>
     <t>鑫e贷总授信_报表数</t>
@@ -567,7 +567,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -654,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -683,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -712,7 +712,7 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -741,7 +741,7 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -886,7 +886,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -915,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -944,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>11</v>
@@ -1089,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -1234,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1321,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1553,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1611,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -1640,7 +1640,7 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1785,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -154,10 +154,10 @@
     <t>东波分理处</t>
   </si>
   <si>
-    <t>益江分理处</t>
-  </si>
-  <si>
-    <t>南新分理处</t>
+    <t>益江支行</t>
+  </si>
+  <si>
+    <t>南新支行</t>
   </si>
   <si>
     <t>凌兆分理处</t>
@@ -596,10 +596,10 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -628,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I4">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,10 +683,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -799,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -828,13 +828,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -886,10 +886,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -915,13 +915,13 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1060,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1089,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1176,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1321,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1408,10 +1408,10 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1553,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1611,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I38">
-        <v>0.78</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1672,7 +1672,7 @@
         <v>-1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1698,10 +1698,10 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1785,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -712,13 +712,13 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -886,13 +886,13 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I13">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1321,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1582,10 +1582,10 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1669,10 +1669,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1698,10 +1698,10 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="42" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -567,10 +567,10 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>77</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>0.91</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,10 +683,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -712,7 +712,7 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -741,13 +741,13 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -799,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -828,7 +828,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1147,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1205,10 +1205,10 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1611,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -1640,7 +1640,7 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1727,13 +1727,13 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>6</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1756,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>3</v>

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -567,10 +567,10 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>77</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I2">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>1.14</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,13 +683,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I6">
-        <v>0.55</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -741,13 +741,13 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -799,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -886,10 +886,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I15">
-        <v>0.03</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1089,13 +1089,13 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I20">
-        <v>0.06</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1176,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I25">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1321,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1350,10 +1350,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1408,10 +1408,10 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I31">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -1553,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I36">
-        <v>1.11</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1611,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I38">
-        <v>1.44</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="45" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -567,13 +567,13 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I2">
-        <v>2.18</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="3" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -567,13 +567,13 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I2">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -625,10 +625,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I5">
-        <v>2.27</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,10 +683,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -741,7 +741,7 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -770,10 +770,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -799,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1089,10 +1089,10 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>22</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20">
-        <v>1.94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I22">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1176,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -1234,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1321,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>1.22</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I36">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1611,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I38">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="39" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -567,13 +567,13 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="I2">
-        <v>3.21</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -799,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -886,7 +886,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -915,10 +915,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -944,10 +944,10 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -973,10 +973,10 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1060,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1089,7 +1089,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>14</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>16</v>
@@ -1205,10 +1205,10 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I24">
-        <v>0.53</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1466,13 +1466,13 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1553,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -1614,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="39" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -567,7 +567,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -654,25 +654,25 @@
         <v>22</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>2.73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -915,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -944,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -973,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -1211,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I24">
-        <v>0.82</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1350,10 +1350,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1466,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -1553,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>1.78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1611,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>24</v>

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -567,13 +567,13 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="I2">
-        <v>3.76</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -625,10 +625,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,13 +683,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I6">
-        <v>1.82</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>0.19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I22">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>14</v>
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -1437,13 +1437,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I32">
-        <v>0.59</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1481,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I33">
-        <v>3.44</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1553,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I38">
-        <v>2.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="44" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -567,7 +567,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -596,13 +596,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -625,10 +625,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I5">
-        <v>4.45</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,10 +683,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -799,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -828,13 +828,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -886,10 +886,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22">
-        <v>1.89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I24">
-        <v>1.12</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1582,10 +1582,10 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1611,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I38">
-        <v>3.33</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1785,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="45" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -596,13 +596,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -625,10 +625,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>-43</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="I5">
-        <v>5.14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,10 +683,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I6">
-        <v>2.91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -712,10 +712,10 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -770,10 +770,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -799,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -828,13 +828,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>1.59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -886,10 +886,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -915,10 +915,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -973,10 +973,10 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1002,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1060,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1176,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1205,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I24">
-        <v>1.76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1379,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1553,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1611,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I38">
-        <v>3.78</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1669,10 +1669,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1756,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0.5600000000000001</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1785,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="45" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -596,13 +596,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>0.36</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -625,10 +625,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>-43</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,10 +683,10 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -712,10 +712,10 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -741,10 +741,10 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -770,10 +770,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -799,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -915,10 +915,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -944,10 +944,10 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -973,10 +973,10 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1002,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1060,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I22">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1176,10 +1176,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1205,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>1.44</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1321,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1379,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I32">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1553,10 +1553,10 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I38">
-        <v>2.67</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1669,10 +1669,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1756,10 +1756,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1785,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="45" spans="1:9">

--- a/result/鑫e贷总授信完成情况.xlsx
+++ b/result/鑫e贷总授信完成情况.xlsx
@@ -596,13 +596,13 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I5">
-        <v>5.77</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>53</v>
@@ -741,7 +741,7 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -770,10 +770,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I9">
-        <v>0.35</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -799,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -915,10 +915,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -944,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>19</v>
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -1234,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1321,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I28">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1553,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>22</v>
@@ -1611,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>35</v>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>5</v>
